--- a/OutBoundProd 11_14_2017.xlsx
+++ b/OutBoundProd 11_14_2017.xlsx
@@ -12,21 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
-    <t>2274</t>
+    <t>2273</t>
   </si>
   <si>
-    <t>Vince</t>
+    <t/>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Total Dev</t>
@@ -78,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K4"/>
+  <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -95,19 +92,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s" s="1">
         <v>2</v>
@@ -115,59 +112,30 @@
     </row>
     <row r="3">
       <c r="B3" t="s" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s" s="1">
         <v>2</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s" s="1">
         <v>2</v>
       </c>
     </row>

--- a/OutBoundProd 11_14_2017.xlsx
+++ b/OutBoundProd 11_14_2017.xlsx
@@ -12,15 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Nano</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Pad</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Tech Total</t>
+  </si>
   <si>
     <t>2273</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>0</t>
@@ -46,21 +70,99 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -68,14 +170,14 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K3"/>
+  <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -95,48 +197,77 @@
         <v>3</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/OutBoundProd 11_14_2017.xlsx
+++ b/OutBoundProd 11_14_2017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Tech</t>
   </si>
@@ -41,19 +41,13 @@
     <t>Tech Total</t>
   </si>
   <si>
-    <t>2273</t>
-  </si>
-  <si>
-    <t/>
+    <t>Total Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>Total Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -168,47 +162,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K4"/>
+  <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="1">
+      <c r="F2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="G2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="1">
+      <c r="H2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="J2" t="s" s="1">
+      <c r="J2" t="s" s="2">
         <v>8</v>
       </c>
     </row>
@@ -238,35 +235,6 @@
         <v>11</v>
       </c>
       <c r="J3" t="s" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s" s="1">
         <v>11</v>
       </c>
     </row>
